--- a/notebooks/folding/geometry/TRR_demonstrator/WBScanCell_Normals_Statistics.xlsx
+++ b/notebooks/folding/geometry/TRR_demonstrator/WBScanCell_Normals_Statistics.xlsx
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2627339475419697</v>
+        <v>0.262735886358424</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1049766047671682</v>
+        <v>0.1049761791011449</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1125196413356833</v>
+        <v>0.1125218668910573</v>
       </c>
       <c r="F2" t="n">
-        <v>0.39778766910963</v>
+        <v>0.3977896017213606</v>
       </c>
     </row>
     <row r="3">
@@ -497,16 +497,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.398124081199936</v>
+        <v>1.398120253085686</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2236539344132496</v>
+        <v>0.2236543619766349</v>
       </c>
       <c r="E3" t="n">
-        <v>1.090775926805078</v>
+        <v>1.090769477518903</v>
       </c>
       <c r="F3" t="n">
-        <v>1.699338323571317</v>
+        <v>1.699333812990899</v>
       </c>
     </row>
     <row r="4">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.2158968245193564</v>
+        <v>0.2158971891814923</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08870762622903364</v>
+        <v>0.08870885709100422</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1002148705092641</v>
+        <v>0.1002140548767269</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3514785544935328</v>
+        <v>0.3514818361634966</v>
       </c>
     </row>
     <row r="5">
@@ -541,16 +541,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.6719056748807466</v>
+        <v>0.6719050541025513</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1006083692483117</v>
+        <v>0.1006099356427307</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5770083042870632</v>
+        <v>0.5770056376621291</v>
       </c>
       <c r="F5" t="n">
-        <v>0.817442709507162</v>
+        <v>0.8174458447035572</v>
       </c>
     </row>
     <row r="6">
@@ -563,16 +563,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.748958413790174</v>
+        <v>1.748958227327314</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3680571262842533</v>
+        <v>0.3680590145860197</v>
       </c>
       <c r="E6" t="n">
-        <v>1.174236624108022</v>
+        <v>1.174231390390628</v>
       </c>
       <c r="F6" t="n">
-        <v>2.140922292609577</v>
+        <v>2.14092294746991</v>
       </c>
     </row>
     <row r="7">
@@ -585,16 +585,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7258638868879723</v>
+        <v>0.7258554683212994</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3164240287186439</v>
+        <v>0.3164164196110335</v>
       </c>
       <c r="E7" t="n">
-        <v>0.237633623125951</v>
+        <v>0.2376374357499806</v>
       </c>
       <c r="F7" t="n">
-        <v>1.101954400991247</v>
+        <v>1.101947801365909</v>
       </c>
     </row>
     <row r="8">
@@ -607,16 +607,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.5627154494737499</v>
+        <v>0.5627154857098391</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0979584931660976</v>
+        <v>0.09795832617279232</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4370581700112858</v>
+        <v>0.4370588309279629</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7106767638571926</v>
+        <v>0.7106763377171748</v>
       </c>
     </row>
     <row r="9">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.03866120023541</v>
+        <v>1.038660444898837</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1934463848849084</v>
+        <v>0.1934460366502093</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8543763484111421</v>
+        <v>0.8543754302512665</v>
       </c>
       <c r="F9" t="n">
-        <v>1.373158757346768</v>
+        <v>1.373157203692391</v>
       </c>
     </row>
     <row r="10">
@@ -651,16 +651,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.798670407318283</v>
+        <v>1.798667310676868</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6332769150877577</v>
+        <v>0.6332848907789942</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7162518658449458</v>
+        <v>0.7162275703917467</v>
       </c>
       <c r="F10" t="n">
-        <v>2.488244470587218</v>
+        <v>2.488238235404843</v>
       </c>
     </row>
     <row r="11">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.794297262437395</v>
+        <v>1.794296619095554</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3591249076703143</v>
+        <v>0.3591277116266754</v>
       </c>
       <c r="E11" t="n">
-        <v>1.222953844173709</v>
+        <v>1.222947801177033</v>
       </c>
       <c r="F11" t="n">
-        <v>2.184580864593167</v>
+        <v>2.184579475153491</v>
       </c>
     </row>
     <row r="12">
@@ -695,16 +695,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6865395229072979</v>
+        <v>0.6865394226472717</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08458609209799356</v>
+        <v>0.08458576277301513</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5881361170700004</v>
+        <v>0.5881359823731278</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8173747095504603</v>
+        <v>0.8173740534553363</v>
       </c>
     </row>
     <row r="13">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.047617348307453</v>
+        <v>2.047615897220342</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4063917928564858</v>
+        <v>0.4063897340114533</v>
       </c>
       <c r="E13" t="n">
-        <v>1.483341414876765</v>
+        <v>1.483344189307119</v>
       </c>
       <c r="F13" t="n">
-        <v>2.474440427468195</v>
+        <v>2.474434160477536</v>
       </c>
     </row>
     <row r="14">
@@ -739,16 +739,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.619456422894879</v>
+        <v>3.619454310443359</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5746108252587225</v>
+        <v>0.5746131138281672</v>
       </c>
       <c r="E14" t="n">
-        <v>2.703282452469772</v>
+        <v>2.703277696407862</v>
       </c>
       <c r="F14" t="n">
-        <v>4.311483784832601</v>
+        <v>4.311482787196318</v>
       </c>
     </row>
     <row r="15">
@@ -761,16 +761,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.371674945824423</v>
+        <v>1.37167541885306</v>
       </c>
       <c r="D15" t="n">
-        <v>0.148717747071673</v>
+        <v>0.1487174874891629</v>
       </c>
       <c r="E15" t="n">
-        <v>1.20137560369807</v>
+        <v>1.201376956194584</v>
       </c>
       <c r="F15" t="n">
-        <v>1.597955081347749</v>
+        <v>1.597955103914297</v>
       </c>
     </row>
   </sheetData>
